--- a/data/TC007.xlsx
+++ b/data/TC007.xlsx
@@ -403,7 +403,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
